--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\ResearchProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B2D2658-8B63-4AA5-AF94-E6CF90BC7938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFDEB1-070D-4612-A0A5-19A9D7DF2137}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Notes</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>The github can be found at https://github.com/BobbieWare/ResearchProject , while it is private access may be made public later on</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>To have a short look into potential areas of research, also looking back on previous notes for inspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes found under ADA lectures provided insight into a few thing to discuss with supervisior once a meeting is arranged </t>
   </si>
 </sst>
 </file>
@@ -260,24 +272,24 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -606,7 +618,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -625,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -638,10 +650,10 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,16 +683,16 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -697,31 +709,31 @@
       <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,10 +749,10 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -757,10 +769,10 @@
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -777,10 +789,10 @@
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -797,10 +809,10 @@
       <c r="E10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -817,10 +829,10 @@
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -837,10 +849,10 @@
       <c r="E12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFDEB1-070D-4612-A0A5-19A9D7DF2137}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F3DCB-CD44-48FF-82E1-DF348F955EAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Notes</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Meeting</t>
   </si>
   <si>
-    <t>13:00-14:00</t>
-  </si>
-  <si>
     <t>WG803</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Set up</t>
   </si>
   <si>
-    <t>16:00-17:30</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -117,13 +111,25 @@
     <t>Research</t>
   </si>
   <si>
-    <t>14:00-16:00</t>
-  </si>
-  <si>
     <t>To have a short look into potential areas of research, also looking back on previous notes for inspiration</t>
   </si>
   <si>
     <t xml:space="preserve">Notes found under ADA lectures provided insight into a few thing to discuss with supervisior once a meeting is arranged </t>
+  </si>
+  <si>
+    <t>13:00-14:00    25th Feb</t>
+  </si>
+  <si>
+    <t>16:00-17:30   25th Feb</t>
+  </si>
+  <si>
+    <t>14:00-16:00       27 Feb</t>
+  </si>
+  <si>
+    <t>13:00-15:00          1 Mar</t>
+  </si>
+  <si>
+    <t>Come up with some potential points of research</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -661,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
@@ -681,179 +687,179 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4">
         <v>1.5</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F3DCB-CD44-48FF-82E1-DF348F955EAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748B471-EFD8-4BCE-A98D-EF9DE5D55B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-22110" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notebook" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Notes</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>Come up with some potential points of research</t>
+  </si>
+  <si>
+    <t>11:15-12:30          8 Mar</t>
+  </si>
+  <si>
+    <t>WT609</t>
+  </si>
+  <si>
+    <t>Discuss potential research topics</t>
+  </si>
+  <si>
+    <t>Likely point of reasearch appears to be developing an image pipeline to deal with data from satalite arrays and develop images from it.</t>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look into </t>
   </si>
 </sst>
 </file>
@@ -624,7 +642,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -764,39 +782,39 @@
     </row>
     <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1499999999999999</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>17</v>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0748B471-EFD8-4BCE-A98D-EF9DE5D55B14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91967133-CF51-4982-B419-C972A5DB19AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22110" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notebook" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Notebook!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Notes</t>
   </si>
@@ -147,7 +148,10 @@
     <t>14:00-17:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Look into </t>
+    <t>Look into fourier transform and aperture synthesis</t>
+  </si>
+  <si>
+    <t>*add pdf and wiki links</t>
   </si>
 </sst>
 </file>
@@ -276,27 +280,27 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -641,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -817,7 +821,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91967133-CF51-4982-B419-C972A5DB19AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428080C-ADEB-4DB0-A6D3-30B776DA362C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notebook" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Notebook!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
   <si>
     <t>Notes</t>
   </si>
@@ -145,13 +144,78 @@
     <t>Likely point of reasearch appears to be developing an image pipeline to deal with data from satalite arrays and develop images from it.</t>
   </si>
   <si>
-    <t>14:00-17:00</t>
-  </si>
-  <si>
     <t>Look into fourier transform and aperture synthesis</t>
   </si>
   <si>
     <t>*add pdf and wiki links</t>
+  </si>
+  <si>
+    <t>14:00-17:00               10 Mar</t>
+  </si>
+  <si>
+    <t>14:00-15:00             11 Mar</t>
+  </si>
+  <si>
+    <t>Go over what is required for the proposal</t>
+  </si>
+  <si>
+    <t>Notes taken with Murray</t>
+  </si>
+  <si>
+    <t>15:00-16:30               11 Mar</t>
+  </si>
+  <si>
+    <t>Get specifics for proposal</t>
+  </si>
+  <si>
+    <t>Collected sources of useful information :   Design Science
+===================================
+Hevner, A. R., March, S. T., Park, J. &amp; Ram, S. (2004, March). Design science in
+information systems research. MIS Q., 28(1), 75–105. Retrieved from http://
+dl.acm.org/citation.cfm?id=2017212.2017217
+Peffers, K., Tuunanen, T., Rothenberger, M. &amp; Chatterjee, S. (2007, December). A
+design science research methodology for information systems research. J. Man-
+age. Inf. Syst., 24(3), 45–77. Retrieved from http://dx.doi.org/10.2753/
+MIS0742-1222240302 doi: 10.2753/MIS0742-1222240302
+===================================
+Gridding
+===================================
+(Good gridding paper for basic understanding)
+Romein, J. W. (2012). An efficient work-distribution strategy for gridding radio-
+telescope data on gpus. In Proceedings of the 26th acm international confer-
+ence on supercomputing (pp. 321–330). New York, NY, USA: ACM. Re-
+trieved from http://doi.acm.org/10.1145/2304576.2304620 doi:
+10.1145/2304576.2304620
+===================================
+(Two guys who came up with interferometry/image synthesis)
+- M.  Ryle  and  A.  Hewish,  “The  synthesis  of  large  radio  telescopes,”
+Monthly Notices  of  the  Royal  Astronomical  Society,vol. 120, no. 3, pp. 220–230, 1960.
+===================================
+(Old techniques for gridding (naive methods) - history)
+- N. Mathur,  “A  pseudodynamic  programming  technique  for the design of correlator
+supersynthesis arrays,”Radio Science,vol. 4, no. 3, pp. 235–244, 1969.
+- D. Hogg, G. Macdonald, R. Conway, and C. Wade, “Synthesis of brightness distribution 
+in radio sources,”The Astronomical Journal, vol. 74, pp. 1206–1213, 1969.
+===================================
+(Current technique for gridding - use of convolution kernels)
+- W. Brouw,  “Aperture  synthesis,”  in Image  Processing  Techniques in Astronomy,
+pp. 301–307, Springer, 1975.
+===================================</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>10:00-15:00         12 Mar</t>
+  </si>
+  <si>
+    <t>~6 with breaks</t>
+  </si>
+  <si>
+    <t>Write the proposal</t>
+  </si>
+  <si>
+    <t>Proposal.docx</t>
   </si>
 </sst>
 </file>
@@ -417,8 +481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Notebook" displayName="Notebook" ref="B3:G12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Notebook" displayName="Notebook" ref="B3:G35" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B3:G35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Session" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Time Period" dataDxfId="1"/>
@@ -643,10 +707,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -657,7 +721,7 @@
     <col min="4" max="4" width="22.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="52" style="3" customWidth="1"/>
+    <col min="7" max="7" width="78.28515625" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="3" customWidth="1"/>
     <col min="9" max="10" width="7.7109375" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
@@ -809,7 +873,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -818,69 +882,529 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428080C-ADEB-4DB0-A6D3-30B776DA362C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530B0F5-A6A5-42FC-8BB1-7BE37E2A076B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
   <si>
     <t>Notes</t>
   </si>
@@ -216,6 +215,33 @@
   </si>
   <si>
     <t>Proposal.docx</t>
+  </si>
+  <si>
+    <t>11:00-13:00              14 Mar</t>
+  </si>
+  <si>
+    <t>Writing the proposal and gather references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brouw, W. N. (1975). Aperture Synthesis. In C. De Jager, &amp; H. Nieuwenhuijzen, Image Processing Techinques in Astronomy (pp. 301-307). Dordrecht: Springer.
+Cooley, J., &amp; Tukey, J. (1965). An algorithm for the machine calculation of complex Fourier series. Mathematics of Computation, 297-301.
+Henver, A. R., March, S. T., Park, J., &amp; Ram, S. (2004). Design science in information systems research. MIS Quaterly, 75-105.
+Hogg, D. E., MacDonald, G. H., Conway, R. G., &amp; Wade, C. M. (1969). Synthesis of Brightness Distribution in Radio Sources. Astronomical Journal, 1206-1213.
+Romein, J. W. (2012). An efficient work-distribution strategy for gridding radio-telescope data on GPUs. ICS '12 Proceedings of the 26th ACM international conference on Supercomputing, 321-330.
+Ryle, M., &amp; Hewish, A. (1960). The synthesis of large radio telescopes. Monthly Notices of the Royal Astronomical Society, Vol. 120, 220-230.
+</t>
+  </si>
+  <si>
+    <t>11:00-15:00        15 Mar</t>
+  </si>
+  <si>
+    <t>~4.5</t>
+  </si>
+  <si>
+    <t>Writign the final proposal</t>
+  </si>
+  <si>
+    <t>See Proposal.docx</t>
   </si>
 </sst>
 </file>
@@ -710,7 +736,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -948,44 +974,44 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1530B0F5-A6A5-42FC-8BB1-7BE37E2A076B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB5192F-6966-4CF7-B070-1BBD454AC0B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
   <si>
     <t>Notes</t>
   </si>
@@ -242,6 +242,30 @@
   </si>
   <si>
     <t>See Proposal.docx</t>
+  </si>
+  <si>
+    <t>Reserch</t>
+  </si>
+  <si>
+    <t>11:00-14:00                     18 Mar</t>
+  </si>
+  <si>
+    <t>Research an iFFT implementation</t>
+  </si>
+  <si>
+    <t>Found notes at https://introcs.cs.princeton.edu/java/home/ and https://stackoverflow.com/questions/3287518/reliable-and-fast-fft-in-java</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>10:00-14:00</t>
+  </si>
+  <si>
+    <t>Writing a simple implementation of a discrete FFT</t>
+  </si>
+  <si>
+    <t>See code under github at https://github.com/BobbieWare/ResearchProject - might be private but can change setting if needed.</t>
   </si>
 </sst>
 </file>
@@ -735,8 +759,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1016,42 +1040,42 @@
     </row>
     <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB5192F-6966-4CF7-B070-1BBD454AC0B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE31A8-BD56-4716-A901-428E616D9681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="66">
   <si>
     <t>Notes</t>
   </si>
@@ -259,13 +259,22 @@
     <t>Coding</t>
   </si>
   <si>
-    <t>10:00-14:00</t>
-  </si>
-  <si>
     <t>Writing a simple implementation of a discrete FFT</t>
   </si>
   <si>
     <t>See code under github at https://github.com/BobbieWare/ResearchProject - might be private but can change setting if needed.</t>
+  </si>
+  <si>
+    <t>10:00-14:00               Mar 19</t>
+  </si>
+  <si>
+    <t>2:00-4:00               Mar 20</t>
+  </si>
+  <si>
+    <t>Create project.docx</t>
+  </si>
+  <si>
+    <t>Created the project file and began formatting it so it is easier to use later on when I have to write the report.</t>
   </si>
 </sst>
 </file>
@@ -760,7 +769,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1072,7 @@
         <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -1072,30 +1081,30 @@
         <v>19</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FE31A8-BD56-4716-A901-428E616D9681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E92E2E-9277-4F70-8B3B-60981788D9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
   <si>
     <t>Notes</t>
   </si>
@@ -275,6 +275,36 @@
   </si>
   <si>
     <t>Created the project file and began formatting it so it is easier to use later on when I have to write the report.</t>
+  </si>
+  <si>
+    <t>Starting on gridding code</t>
+  </si>
+  <si>
+    <t>Created code to form the beginning of the pipeline</t>
+  </si>
+  <si>
+    <t>12:00-4:00                  Mar 21</t>
+  </si>
+  <si>
+    <t>2:00-3:00            Mar 22</t>
+  </si>
+  <si>
+    <t>Meeting to discuss gridding techniques</t>
+  </si>
+  <si>
+    <t>Notes made from meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding </t>
+  </si>
+  <si>
+    <t>5:00-8:00                 Mar 22</t>
+  </si>
+  <si>
+    <t>Continuing gridding code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progess on code </t>
   </si>
 </sst>
 </file>
@@ -391,7 +421,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +471,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -769,7 +803,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1109,62 +1143,62 @@
     </row>
     <row r="18" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E92E2E-9277-4F70-8B3B-60981788D9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40FC378-2EC7-42E1-BDD0-87EFEADC04DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>Notes</t>
   </si>
@@ -268,9 +268,6 @@
     <t>10:00-14:00               Mar 19</t>
   </si>
   <si>
-    <t>2:00-4:00               Mar 20</t>
-  </si>
-  <si>
     <t>Create project.docx</t>
   </si>
   <si>
@@ -283,12 +280,6 @@
     <t>Created code to form the beginning of the pipeline</t>
   </si>
   <si>
-    <t>12:00-4:00                  Mar 21</t>
-  </si>
-  <si>
-    <t>2:00-3:00            Mar 22</t>
-  </si>
-  <si>
     <t>Meeting to discuss gridding techniques</t>
   </si>
   <si>
@@ -298,13 +289,25 @@
     <t xml:space="preserve">Coding </t>
   </si>
   <si>
-    <t>5:00-8:00                 Mar 22</t>
-  </si>
-  <si>
     <t>Continuing gridding code</t>
   </si>
   <si>
     <t xml:space="preserve">Progess on code </t>
+  </si>
+  <si>
+    <t>14:00-16:00               Mar 20</t>
+  </si>
+  <si>
+    <t>12:00-16:00                  Mar 21</t>
+  </si>
+  <si>
+    <t>14:00-15:00            Mar 22</t>
+  </si>
+  <si>
+    <t>17:00-20:00                 Mar 22</t>
+  </si>
+  <si>
+    <t>14:00-18:00                Mar 24</t>
   </si>
 </sst>
 </file>
@@ -465,16 +468,16 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -803,7 +806,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -822,10 +825,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -835,10 +838,10 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,7 +1129,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -1135,10 +1138,10 @@
         <v>19</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,7 +1149,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1155,18 +1158,18 @@
         <v>19</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>69</v>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1175,18 +1178,18 @@
         <v>31</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1195,30 +1198,30 @@
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40FC378-2EC7-42E1-BDD0-87EFEADC04DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE1271-2761-464D-BD35-B34DB3E17FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
   <si>
     <t>Notes</t>
   </si>
@@ -308,6 +308,21 @@
   </si>
   <si>
     <t>14:00-18:00                Mar 24</t>
+  </si>
+  <si>
+    <t>Coding-Writing</t>
+  </si>
+  <si>
+    <t>10:00-20:00                Mar 26</t>
+  </si>
+  <si>
+    <t>~8</t>
+  </si>
+  <si>
+    <t>Gridding code and writeup</t>
+  </si>
+  <si>
+    <t>Data received and can be found in folder Visibilites data</t>
   </si>
 </sst>
 </file>
@@ -805,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1226,22 +1241,22 @@
     </row>
     <row r="22" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE1271-2761-464D-BD35-B34DB3E17FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D83273-2B19-4794-80A5-5934B45B10B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Notes</t>
   </si>
@@ -323,6 +323,45 @@
   </si>
   <si>
     <t>Data received and can be found in folder Visibilites data</t>
+  </si>
+  <si>
+    <t>12:00-18:00             Mar 27</t>
+  </si>
+  <si>
+    <t>Writing report for mid project review</t>
+  </si>
+  <si>
+    <t>See project.docx</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>WZ300</t>
+  </si>
+  <si>
+    <t>Continuing project writing</t>
+  </si>
+  <si>
+    <t>added to references see end of note book</t>
+  </si>
+  <si>
+    <t>12:00-16:00                       Mar 29</t>
+  </si>
+  <si>
+    <t>Progress on code, reads in visibilities data and maps to grid</t>
+  </si>
+  <si>
+    <t>11:00-19:00                       Apr 2</t>
+  </si>
+  <si>
+    <t>~7</t>
+  </si>
+  <si>
+    <t>Gathering sources and writing introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See project and refereneces </t>
   </si>
 </sst>
 </file>
@@ -820,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,82 +1300,82 @@
     </row>
     <row r="23" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D83273-2B19-4794-80A5-5934B45B10B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA5C969-7092-4897-A089-1F64EE975BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>Notes</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t xml:space="preserve">See project and refereneces </t>
+  </si>
+  <si>
+    <t>12:00-16:00                   Apr 3</t>
+  </si>
+  <si>
+    <t>Writing introduction</t>
   </si>
 </sst>
 </file>
@@ -859,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1380,22 +1386,22 @@
     </row>
     <row r="27" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA5C969-7092-4897-A089-1F64EE975BB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948780CD-E211-412D-982C-AA50940EFF1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>Notes</t>
   </si>
@@ -101,21 +101,12 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Set-up this excel file, its format, and a github to sync my work with my home pc and laptop.</t>
-  </si>
-  <si>
-    <t>The github can be found at https://github.com/BobbieWare/ResearchProject , while it is private access may be made public later on</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
     <t>To have a short look into potential areas of research, also looking back on previous notes for inspiration</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes found under ADA lectures provided insight into a few thing to discuss with supervisior once a meeting is arranged </t>
-  </si>
-  <si>
     <t>13:00-14:00    25th Feb</t>
   </si>
   <si>
@@ -138,12 +129,6 @@
   </si>
   <si>
     <t>Discuss potential research topics</t>
-  </si>
-  <si>
-    <t>Likely point of reasearch appears to be developing an image pipeline to deal with data from satalite arrays and develop images from it.</t>
-  </si>
-  <si>
-    <t>Look into fourier transform and aperture synthesis</t>
   </si>
   <si>
     <t>*add pdf and wiki links</t>
@@ -223,151 +208,169 @@
     <t>Writing the proposal and gather references</t>
   </si>
   <si>
+    <t>11:00-15:00        15 Mar</t>
+  </si>
+  <si>
+    <t>~4.5</t>
+  </si>
+  <si>
+    <t>See Proposal.docx</t>
+  </si>
+  <si>
+    <t>11:00-14:00                     18 Mar</t>
+  </si>
+  <si>
+    <t>Research an iFFT implementation</t>
+  </si>
+  <si>
+    <t>Found notes at https://introcs.cs.princeton.edu/java/home/ and https://stackoverflow.com/questions/3287518/reliable-and-fast-fft-in-java</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Writing a simple implementation of a discrete FFT</t>
+  </si>
+  <si>
+    <t>10:00-14:00               Mar 19</t>
+  </si>
+  <si>
+    <t>Create project.docx</t>
+  </si>
+  <si>
+    <t>Created the project file and began formatting it so it is easier to use later on when I have to write the report.</t>
+  </si>
+  <si>
+    <t>Starting on gridding code</t>
+  </si>
+  <si>
+    <t>Created code to form the beginning of the pipeline</t>
+  </si>
+  <si>
+    <t>Meeting to discuss gridding techniques</t>
+  </si>
+  <si>
+    <t>Notes made from meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding </t>
+  </si>
+  <si>
+    <t>Continuing gridding code</t>
+  </si>
+  <si>
+    <t>14:00-16:00               Mar 20</t>
+  </si>
+  <si>
+    <t>12:00-16:00                  Mar 21</t>
+  </si>
+  <si>
+    <t>14:00-15:00            Mar 22</t>
+  </si>
+  <si>
+    <t>17:00-20:00                 Mar 22</t>
+  </si>
+  <si>
+    <t>14:00-18:00                Mar 24</t>
+  </si>
+  <si>
+    <t>Coding-Writing</t>
+  </si>
+  <si>
+    <t>10:00-20:00                Mar 26</t>
+  </si>
+  <si>
+    <t>~8</t>
+  </si>
+  <si>
+    <t>Gridding code and writeup</t>
+  </si>
+  <si>
+    <t>12:00-18:00             Mar 27</t>
+  </si>
+  <si>
+    <t>Writing report for mid project review</t>
+  </si>
+  <si>
+    <t>See project.docx</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>WZ300</t>
+  </si>
+  <si>
+    <t>Continuing project writing</t>
+  </si>
+  <si>
+    <t>added to references see end of note book</t>
+  </si>
+  <si>
+    <t>12:00-16:00                       Mar 29</t>
+  </si>
+  <si>
+    <t>Progress on code, reads in visibilities data and maps to grid</t>
+  </si>
+  <si>
+    <t>11:00-19:00                       Apr 2</t>
+  </si>
+  <si>
+    <t>~7</t>
+  </si>
+  <si>
+    <t>Gathering sources and writing introduction</t>
+  </si>
+  <si>
+    <t>12:00-16:00                   Apr 3</t>
+  </si>
+  <si>
+    <t>Writing introduction</t>
+  </si>
+  <si>
+    <t>11:00-16:00                Apr 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuing work on </t>
+  </si>
+  <si>
+    <t>Set-up this excel file, its format, and a GitHub to sync my work with my home pc and laptop.</t>
+  </si>
+  <si>
+    <t>The GitHub can be found at https://github.com/BobbieWare/ResearchProject , while it is private access may be made public later on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes found under ADA lectures provided insight into a few thing to discuss with supervisor once a meeting is arranged </t>
+  </si>
+  <si>
+    <t>Likely point of research appears to be developing an image pipeline to deal with data from satellite arrays and develop images from it.</t>
+  </si>
+  <si>
+    <t>Look into Fourier transform and aperture synthesis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brouw, W. N. (1975). Aperture Synthesis. In C. De Jager, &amp; H. Nieuwenhuijzen, Image Processing Techinques in Astronomy (pp. 301-307). Dordrecht: Springer.
 Cooley, J., &amp; Tukey, J. (1965). An algorithm for the machine calculation of complex Fourier series. Mathematics of Computation, 297-301.
-Henver, A. R., March, S. T., Park, J., &amp; Ram, S. (2004). Design science in information systems research. MIS Quaterly, 75-105.
+Henver, A. R., March, S. T., Park, J., &amp; Ram, S. (2004). Design science in information systems research. MIS Quarterly, 75-105.
 Hogg, D. E., MacDonald, G. H., Conway, R. G., &amp; Wade, C. M. (1969). Synthesis of Brightness Distribution in Radio Sources. Astronomical Journal, 1206-1213.
 Romein, J. W. (2012). An efficient work-distribution strategy for gridding radio-telescope data on GPUs. ICS '12 Proceedings of the 26th ACM international conference on Supercomputing, 321-330.
 Ryle, M., &amp; Hewish, A. (1960). The synthesis of large radio telescopes. Monthly Notices of the Royal Astronomical Society, Vol. 120, 220-230.
 </t>
   </si>
   <si>
-    <t>11:00-15:00        15 Mar</t>
-  </si>
-  <si>
-    <t>~4.5</t>
-  </si>
-  <si>
-    <t>Writign the final proposal</t>
-  </si>
-  <si>
-    <t>See Proposal.docx</t>
-  </si>
-  <si>
-    <t>Reserch</t>
-  </si>
-  <si>
-    <t>11:00-14:00                     18 Mar</t>
-  </si>
-  <si>
-    <t>Research an iFFT implementation</t>
-  </si>
-  <si>
-    <t>Found notes at https://introcs.cs.princeton.edu/java/home/ and https://stackoverflow.com/questions/3287518/reliable-and-fast-fft-in-java</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Writing a simple implementation of a discrete FFT</t>
-  </si>
-  <si>
-    <t>See code under github at https://github.com/BobbieWare/ResearchProject - might be private but can change setting if needed.</t>
-  </si>
-  <si>
-    <t>10:00-14:00               Mar 19</t>
-  </si>
-  <si>
-    <t>Create project.docx</t>
-  </si>
-  <si>
-    <t>Created the project file and began formatting it so it is easier to use later on when I have to write the report.</t>
-  </si>
-  <si>
-    <t>Starting on gridding code</t>
-  </si>
-  <si>
-    <t>Created code to form the beginning of the pipeline</t>
-  </si>
-  <si>
-    <t>Meeting to discuss gridding techniques</t>
-  </si>
-  <si>
-    <t>Notes made from meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding </t>
-  </si>
-  <si>
-    <t>Continuing gridding code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progess on code </t>
-  </si>
-  <si>
-    <t>14:00-16:00               Mar 20</t>
-  </si>
-  <si>
-    <t>12:00-16:00                  Mar 21</t>
-  </si>
-  <si>
-    <t>14:00-15:00            Mar 22</t>
-  </si>
-  <si>
-    <t>17:00-20:00                 Mar 22</t>
-  </si>
-  <si>
-    <t>14:00-18:00                Mar 24</t>
-  </si>
-  <si>
-    <t>Coding-Writing</t>
-  </si>
-  <si>
-    <t>10:00-20:00                Mar 26</t>
-  </si>
-  <si>
-    <t>~8</t>
-  </si>
-  <si>
-    <t>Gridding code and writeup</t>
-  </si>
-  <si>
-    <t>Data received and can be found in folder Visibilites data</t>
-  </si>
-  <si>
-    <t>12:00-18:00             Mar 27</t>
-  </si>
-  <si>
-    <t>Writing report for mid project review</t>
-  </si>
-  <si>
-    <t>See project.docx</t>
-  </si>
-  <si>
-    <t>14:00-16:00</t>
-  </si>
-  <si>
-    <t>WZ300</t>
-  </si>
-  <si>
-    <t>Continuing project writing</t>
-  </si>
-  <si>
-    <t>added to references see end of note book</t>
-  </si>
-  <si>
-    <t>12:00-16:00                       Mar 29</t>
-  </si>
-  <si>
-    <t>Progress on code, reads in visibilities data and maps to grid</t>
-  </si>
-  <si>
-    <t>11:00-19:00                       Apr 2</t>
-  </si>
-  <si>
-    <t>~7</t>
-  </si>
-  <si>
-    <t>Gathering sources and writing introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See project and refereneces </t>
-  </si>
-  <si>
-    <t>12:00-16:00                   Apr 3</t>
-  </si>
-  <si>
-    <t>Writing introduction</t>
+    <t>Writing the final proposal</t>
+  </si>
+  <si>
+    <t>See code under GitHub at https://github.com/BobbieWare/ResearchProject - might be private but can change setting if needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress on code </t>
+  </si>
+  <si>
+    <t>Data received and can be found in folder Visibilities data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See project and references </t>
   </si>
 </sst>
 </file>
@@ -865,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -929,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -949,7 +952,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>1.5</v>
@@ -958,18 +961,18 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -978,18 +981,18 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -998,10 +1001,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1009,27 +1012,27 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <v>1.1499999999999999</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -1038,10 +1041,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1049,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1058,10 +1061,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1069,47 +1072,47 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>1.5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -1118,38 +1121,38 @@
         <v>19</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1158,18 +1161,18 @@
         <v>19</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -1178,18 +1181,18 @@
         <v>19</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -1198,18 +1201,18 @@
         <v>19</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1218,10 +1221,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,27 +1232,27 @@
         <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -1258,18 +1261,18 @@
         <v>19</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -1278,38 +1281,38 @@
         <v>19</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
@@ -1318,38 +1321,38 @@
         <v>19</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
@@ -1358,38 +1361,38 @@
         <v>19</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -1398,27 +1401,27 @@
         <v>19</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>17</v>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948780CD-E211-412D-982C-AA50940EFF1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A2DCC-BFF0-45D9-927B-5E377B8CB183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>Notes</t>
   </si>
@@ -331,9 +331,6 @@
     <t>11:00-16:00                Apr 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Continuing work on </t>
-  </si>
-  <si>
     <t>Set-up this excel file, its format, and a GitHub to sync my work with my home pc and laptop.</t>
   </si>
   <si>
@@ -371,6 +368,15 @@
   </si>
   <si>
     <t xml:space="preserve">See project and references </t>
+  </si>
+  <si>
+    <t>Continuing work on project</t>
+  </si>
+  <si>
+    <t>11:00-14:00                     Apr 6</t>
+  </si>
+  <si>
+    <t>Wrote the first version of the Abtract</t>
   </si>
 </sst>
 </file>
@@ -868,8 +874,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -961,10 +967,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +990,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,7 +1047,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -1124,7 +1130,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>47</v>
@@ -1184,7 +1190,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1264,7 +1270,7 @@
         <v>61</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,7 +1290,7 @@
         <v>61</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1310,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1390,7 @@
         <v>82</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,30 +1427,30 @@
         <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A2DCC-BFF0-45D9-927B-5E377B8CB183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87E5F3-D40E-4DAD-80D5-566E14CE60E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87E5F3-D40E-4DAD-80D5-566E14CE60E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9345D71A-7647-4E5F-A6F0-EDBF796D3983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
   <si>
     <t>Notes</t>
   </si>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t>Wrote the first version of the Abtract</t>
+  </si>
+  <si>
+    <t>11:00-18:00                            Apr 8</t>
+  </si>
+  <si>
+    <t>Gridding and iFFT code</t>
+  </si>
+  <si>
+    <t>Gridder is now complete and work began on iFFT code</t>
   </si>
 </sst>
 </file>
@@ -874,8 +883,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1455,22 +1464,22 @@
     </row>
     <row r="30" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9345D71A-7647-4E5F-A6F0-EDBF796D3983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37A6B5-3A4F-4E30-B49D-9EED83039FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
   <si>
     <t>Notes</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>Gridder is now complete and work began on iFFT code</t>
+  </si>
+  <si>
+    <t>12:00-16:00</t>
+  </si>
+  <si>
+    <t>Writing project</t>
+  </si>
+  <si>
+    <t>Work on project.docx</t>
   </si>
 </sst>
 </file>
@@ -502,7 +511,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +565,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -655,8 +668,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Notebook" displayName="Notebook" ref="B3:G35" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:G35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Notebook" displayName="Notebook" ref="B3:G65" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B3:G65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Session" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Time Period" dataDxfId="1"/>
@@ -881,10 +894,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1484,22 +1497,22 @@
     </row>
     <row r="31" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1579,6 +1592,606 @@
         <v>14</v>
       </c>
       <c r="G35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="14" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Notebook.xlsx
+++ b/Notebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD37A6B5-3A4F-4E30-B49D-9EED83039FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F32C1-5793-44CE-8571-9F828F8873CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="139">
   <si>
     <t>Notes</t>
   </si>
@@ -376,9 +376,6 @@
     <t>11:00-14:00                     Apr 6</t>
   </si>
   <si>
-    <t>Wrote the first version of the Abtract</t>
-  </si>
-  <si>
     <t>11:00-18:00                            Apr 8</t>
   </si>
   <si>
@@ -395,6 +392,110 @@
   </si>
   <si>
     <t>Work on project.docx</t>
+  </si>
+  <si>
+    <t>12:00-16:00               Apr 9</t>
+  </si>
+  <si>
+    <t>13:00-15:00           Apr 11</t>
+  </si>
+  <si>
+    <t>Discussed what is required for Mid-semester review</t>
+  </si>
+  <si>
+    <t>Notes on what is to be included</t>
+  </si>
+  <si>
+    <t>Coded an initial version of the iFFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple iFFT to be adapted </t>
+  </si>
+  <si>
+    <t>More progress on project</t>
+  </si>
+  <si>
+    <t>Literature review complete and most of methods done</t>
+  </si>
+  <si>
+    <t>9:00-12:00                      Apr 12</t>
+  </si>
+  <si>
+    <t>17:00-20:00          Apr 11</t>
+  </si>
+  <si>
+    <t>Project is ready for submission for mid-project review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:00-16:00             Apr 12 </t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Final touches on mid project review</t>
+  </si>
+  <si>
+    <t>Wrote the first version of the Abstract</t>
+  </si>
+  <si>
+    <t>Submitting</t>
+  </si>
+  <si>
+    <t>14:00-15:00               May 1</t>
+  </si>
+  <si>
+    <t>Discuss the poster presentation</t>
+  </si>
+  <si>
+    <t>Last review on the project before sending it away for the mid project review, 
+this version that was sent off can be found as the project docx containing -At Mid Project review-</t>
+  </si>
+  <si>
+    <t>Collected ideas for what the poster should look like by 
+discussing with Murray and looking over posters from previous years</t>
+  </si>
+  <si>
+    <t>~4</t>
+  </si>
+  <si>
+    <t>Made progress on iFFT code</t>
+  </si>
+  <si>
+    <t>Looking into different ways of implementing the iFFT</t>
+  </si>
+  <si>
+    <t>10:00:15:00                  Apr 15</t>
+  </si>
+  <si>
+    <t>11:00-16:00</t>
+  </si>
+  <si>
+    <t>Finished implementation of iFFT</t>
+  </si>
+  <si>
+    <t>Have working code for an iFFT when using separate grids for the real and complex part of the numbers</t>
+  </si>
+  <si>
+    <t>11:00-16:00          Apr 18</t>
+  </si>
+  <si>
+    <t>15:00-22:00                Apr 22</t>
+  </si>
+  <si>
+    <t>~6</t>
+  </si>
+  <si>
+    <t>Implement different iFFT</t>
+  </si>
+  <si>
+    <t>Began work on a pipeline uses a complex data type, this will be comapared against the other pipelines</t>
+  </si>
+  <si>
+    <t>Finish work on second pipeline</t>
+  </si>
+  <si>
+    <t>Finished the second pipeline</t>
   </si>
 </sst>
 </file>
@@ -511,7 +612,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +660,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
@@ -567,8 +672,20 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -896,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -916,10 +1033,10 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -929,10 +1046,10 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1586,7 @@
         <v>19</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>73</v>
@@ -1480,7 +1597,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4">
         <v>7</v>
@@ -1489,10 +1606,10 @@
         <v>19</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1500,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D31" s="4">
         <v>4</v>
@@ -1509,215 +1626,215 @@
         <v>19</v>
       </c>
       <c r="F31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>15</v>
+        <v>114</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>15</v>
+        <v>113</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>17</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>17</v>
+        <v>125</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>17</v>
+        <v>134</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>17</v>
+        <v>121</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
@@ -1725,19 +1842,19 @@
       <c r="D42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>12</v>
@@ -1745,13 +1862,13 @@
       <c r="D43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1765,13 +1882,13 @@
       <c r="D44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1785,13 +1902,13 @@
       <c r="D45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1805,13 +1922,13 @@
       <c r="D46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1825,13 +1942,13 @@
       <c r="D47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1845,13 +1962,13 @@
       <c r="D48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1865,13 +1982,13 @@
       <c r="D49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1885,13 +2002,13 @@
       <c r="D50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1905,13 +2022,13 @@
       <c r="D51" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1925,13 +2042,13 @@
       <c r="D52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1945,13 +2062,13 @@
       <c r="D53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1965,13 +2082,13 @@
       <c r="D54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1985,13 +2102,13 @@
       <c r="D55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2005,13 +2122,13 @@
       <c r="D56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2025,13 +2142,13 @@
       <c r="D57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2045,13 +2162,13 @@
       <c r="D58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2065,13 +2182,13 @@
       <c r="D59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2085,13 +2202,13 @@
       <c r="D60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2105,13 +2222,13 @@
       <c r="D61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2125,13 +2242,13 @@
       <c r="D62" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2145,13 +2262,13 @@
       <c r="D63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2165,13 +2282,13 @@
       <c r="D64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2185,13 +2302,13 @@
       <c r="D65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="12" t="s">
         <v>17</v>
       </c>
     </row>
